--- a/biology/Zoologie/Aedia/Aedia.xlsx
+++ b/biology/Zoologie/Aedia/Aedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aedia est un genre de lépidoptères (papillons) nocturnes de la famille des Noctuidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FUNET Tree of Life  (25 janvier 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (25 janvier 2021) :
 Aedia abrostolica (Hampson, 1926)
 Aedia acronyctoides (Guenée, 1852)
 Aedia actinalis Hacker, 2016
@@ -534,7 +548,7 @@
 Aedia eurymelas (Hampson, 1916)
 Aedia funesta (Esper, 1786)
 Aedia heteropterygia Hacker, 2016
-Aedia hirtissima (Walker, [1863])
+Aedia hirtissima (Walker, )
 Aedia hollowayi Haruta, 1993
 Aedia illegitima (Wallengren, 1875)
 Aedia intrahens (Walker, 1858)
@@ -606,7 +620,9 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces sont présentes en Europe : Aedia funesta et Aedia leucomelas.
 </t>
@@ -637,10 +653,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Aedia a été décrit en 1823 par l'entomologiste allemand Jakob Hübner[1].
-Il a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aedia a été décrit en 1823 par l'entomologiste allemand Jakob Hübner.
+Il a pour synonymes :
 Anophia Guenée, 1841
 Eopaectes Hulstaert, 1924
 Catephiona Hampson, 1926
@@ -653,7 +671,7 @@
 Lipatephia  Hampson, 1926
 Syagrana Wiltshire, 1980
 Renatia Berio, 1985
-La classification de ce genre a longtemps été débattue : il a été classé, en fonction des auteurs, dans les sous-familles des Calpinae[2], des Acontiinae[1] ou des Catocalinae. À la suite d'études de phylogénétique moléculaire, il est actuellement classé dans la sous-famille des Aediinae[3].
+La classification de ce genre a longtemps été débattue : il a été classé, en fonction des auteurs, dans les sous-familles des Calpinae, des Acontiinae ou des Catocalinae. À la suite d'études de phylogénétique moléculaire, il est actuellement classé dans la sous-famille des Aediinae.
 </t>
         </is>
       </c>
